--- a/Lockwood Flooring/30678/_RES.xlsx
+++ b/Lockwood Flooring/30678/_RES.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Lockwood Flooring\30678\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F11C5D-2617-4379-B3F6-AAE27DE75650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABA21BF-2FE2-46C4-A1F5-BE697264AAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8520" yWindow="960" windowWidth="29280" windowHeight="19920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9120" yWindow="1035" windowWidth="29280" windowHeight="19920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">res!$A$1:$H$168</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">res!$A$1:$H$169</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="59">
   <si>
     <t>type</t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t>Vinyl ITP (Building E)</t>
+  </si>
+  <si>
+    <t>Complete,Pass</t>
+  </si>
+  <si>
+    <t>radio</t>
   </si>
 </sst>
 </file>
@@ -1071,18 +1077,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:H311"/>
+  <dimension ref="A1:H304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="95.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="9.140625" style="1"/>
+    <col min="3" max="3" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="1"/>
     <col min="7" max="7" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="38" style="1" bestFit="1" customWidth="1"/>
@@ -1131,7 +1137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1139,7 +1145,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1147,7 +1153,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1155,31 +1161,40 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1187,7 +1202,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1195,47 +1210,62 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -1243,7 +1273,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -1251,7 +1281,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -1259,7 +1289,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -1267,7 +1297,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -1275,7 +1305,6 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>10</v>
@@ -1292,7 +1321,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>9</v>
       </c>
@@ -1300,7 +1329,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -1308,7 +1337,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -1316,31 +1345,40 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -1348,7 +1386,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -1356,71 +1394,95 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
@@ -1428,7 +1490,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
@@ -1436,7 +1498,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
@@ -1444,7 +1506,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
@@ -1452,7 +1514,6 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>10</v>
@@ -1469,7 +1530,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>9</v>
       </c>
@@ -1477,7 +1538,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>8</v>
       </c>
@@ -1485,7 +1546,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>8</v>
       </c>
@@ -1493,31 +1554,40 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -1525,7 +1595,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>8</v>
       </c>
@@ -1533,47 +1603,62 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>8</v>
       </c>
@@ -1581,7 +1666,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
@@ -1589,7 +1674,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
@@ -1597,7 +1682,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>8</v>
       </c>
@@ -1605,7 +1690,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
@@ -1613,7 +1698,6 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>10</v>
@@ -1630,7 +1714,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>9</v>
       </c>
@@ -1638,7 +1722,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>8</v>
       </c>
@@ -1646,7 +1730,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>8</v>
       </c>
@@ -1654,31 +1738,40 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C68" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C69" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C70" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>8</v>
       </c>
@@ -1686,7 +1779,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
@@ -1694,47 +1787,62 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C73" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C74" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C75" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C76" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C77" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>8</v>
       </c>
@@ -1742,7 +1850,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>8</v>
       </c>
@@ -1750,7 +1858,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>8</v>
       </c>
@@ -1758,7 +1866,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>8</v>
       </c>
@@ -1766,7 +1874,6 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>10</v>
@@ -1783,7 +1890,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>9</v>
       </c>
@@ -1791,7 +1898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>8</v>
       </c>
@@ -1799,7 +1906,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>8</v>
       </c>
@@ -1807,31 +1914,40 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C87" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C88" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C89" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>8</v>
       </c>
@@ -1839,7 +1955,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>8</v>
       </c>
@@ -1847,71 +1963,95 @@
         <v>41</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C92" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C93" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C94" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C95" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C96" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C97" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C98" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C99" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>8</v>
       </c>
@@ -1919,7 +2059,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>8</v>
       </c>
@@ -1927,7 +2067,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>8</v>
       </c>
@@ -1935,7 +2075,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>8</v>
       </c>
@@ -1943,528 +2083,637 @@
         <v>28</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B106" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3" t="s">
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B107" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B107" s="1" t="s">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B108" s="1" t="s">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B109" s="1" t="s">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B110" s="1" t="s">
+      <c r="C110" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B111" s="1" t="s">
+      <c r="C111" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B112" s="1" t="s">
+      <c r="C112" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B113" s="1" t="s">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B114" s="1" t="s">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B115" s="1" t="s">
+      <c r="C115" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B116" s="1" t="s">
+      <c r="C116" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B117" s="1" t="s">
+      <c r="C117" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B118" s="1" t="s">
+      <c r="C118" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B119" s="1" t="s">
+      <c r="C119" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B120" s="1" t="s">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B121" s="1" t="s">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B122" s="1" t="s">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B123" s="1" t="s">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B126" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
-      <c r="E125" s="3"/>
-      <c r="F125" s="3"/>
-      <c r="G125" s="3"/>
-      <c r="H125" s="3" t="s">
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="4" t="s">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B127" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B127" s="1" t="s">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B128" s="1" t="s">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B129" s="1" t="s">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B130" s="1" t="s">
+      <c r="C130" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B131" s="1" t="s">
+      <c r="C131" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B132" s="1" t="s">
+      <c r="C132" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B133" s="1" t="s">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B134" s="1" t="s">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B135" s="1" t="s">
+      <c r="C135" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B136" s="1" t="s">
+      <c r="C136" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B137" s="1" t="s">
+      <c r="C137" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B138" s="1" t="s">
+      <c r="C138" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B139" s="1" t="s">
+      <c r="C139" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B140" s="1" t="s">
+      <c r="C140" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B141" s="1" t="s">
+      <c r="C141" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B142" s="1" t="s">
+      <c r="C142" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B143" s="1" t="s">
+      <c r="C143" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B144" s="1" t="s">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B145" s="1" t="s">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B146" s="1" t="s">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="3" t="s">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B149" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C148" s="3"/>
-      <c r="D148" s="3"/>
-      <c r="E148" s="3"/>
-      <c r="F148" s="3"/>
-      <c r="G148" s="3"/>
-      <c r="H148" s="3" t="s">
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="4" t="s">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B149" s="4" t="s">
+      <c r="B150" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B150" s="1" t="s">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B151" s="1" t="s">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B152" s="1" t="s">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B153" s="1" t="s">
+      <c r="C153" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B154" s="1" t="s">
+      <c r="C154" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B155" s="1" t="s">
+      <c r="C155" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B156" s="1" t="s">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B157" s="1" t="s">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B158" s="1" t="s">
+      <c r="C158" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B159" s="1" t="s">
+      <c r="C159" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B160" s="1" t="s">
+      <c r="C160" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B161" s="1" t="s">
+      <c r="C161" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B162" s="1" t="s">
+      <c r="C162" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B163" s="1" t="s">
+      <c r="C163" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B164" s="1" t="s">
+      <c r="C164" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B165" s="1" t="s">
+      <c r="C165" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B166" s="1" t="s">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B167" s="1" t="s">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B168" s="1" t="s">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="H169"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H170"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H171"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H172"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H173"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H174"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H175"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H176"/>
@@ -2853,35 +3102,8 @@
     <row r="304" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H304"/>
     </row>
-    <row r="305" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H305"/>
-    </row>
-    <row r="306" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H306"/>
-    </row>
-    <row r="307" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H307"/>
-    </row>
-    <row r="308" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H308"/>
-    </row>
-    <row r="309" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H309"/>
-    </row>
-    <row r="310" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H310"/>
-    </row>
-    <row r="311" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H311"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:H168" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="7">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H169" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
